--- a/pred_ohlcv/54_21/2020-01-15 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BAT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-164865.6970733898</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-160756.0314733898</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-156251.0314733898</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-130251.0314733898</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-137864.0314733898</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-142601.7053733898</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-142794.1952733898</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-20710775.42147339</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-20837544.67827338</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-20837544.67827338</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-20837290.12737338</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-20833792.08594212</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-20838854.50494212</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-20855055.98514212</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-20858415.02574212</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-20818736.66924211</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-20830937.54984212</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-20831094.37684212</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-20830568.59714212</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-20830566.26714212</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-20867825.14574211</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-20868325.00414211</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-20868609.03854211</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-20867795.01254211</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-20869795.01254211</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-20865581.12704211</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-20865581.12704211</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-20865581.12704211</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-20865552.12704211</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-20866820.73794211</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-20866820.73794211</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-20866820.73794211</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-20866820.73794211</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-20866820.73794211</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-20867580.02474211</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-20877770.76464211</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-20877770.76464211</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-20877569.52634211</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-20855069.52634211</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-20857226.77634211</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-20857035.77634211</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-20857915.96234211</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-20858375.14884211</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-20884230.02024211</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-20884230.02024211</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-20884084.25594211</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-20884444.77664211</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 BAT ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>-164865.6970733898</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-160756.0314733898</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-156251.0314733898</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-130251.0314733898</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-145651.0314733898</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-137864.0314733898</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-145898.1007733898</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-135898.1007733898</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-142794.1952733898</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-142794.1952733898</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-20710775.42147339</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-20764697.50587339</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-20838854.50494212</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-20818736.66924211</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-20830937.54984212</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-20831094.37684212</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-20830568.59714212</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-20830566.26714212</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-20830886.36314212</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-20830884.03314212</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-20832386.18664212</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-20832173.93744212</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-20832173.93744212</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-20832173.93744212</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-20832171.62744212</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-20835888.62744212</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-20835888.62744212</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-20855823.14784212</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-20867920.45344212</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-20867918.14344212</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-20868023.21094212</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-20877561.27954211</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-20876183.99324211</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-20876411.30314212</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-20876411.30314212</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-20872596.77964212</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-20867825.14574211</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-20867825.14574211</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-20868325.00414211</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-20868609.03854211</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-20867795.01254211</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-20869795.01254211</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-20865581.12704211</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-20865581.12704211</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-20865581.12704211</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-20865552.12704211</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-20866820.73794211</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-20866820.73794211</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-20884230.02024211</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-20884230.02024211</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-20884084.25594211</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-20884444.77664211</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
